--- a/Doc/1. 프로토콜/PC연동_프로토콜_V1_251107.xlsx
+++ b/Doc/1. 프로토콜/PC연동_프로토콜_V1_251107.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Water\2025\WORKS\2025_Tech_PC_Program\Doc\1. 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAAE150-684A-4308-967D-6CE6A82B8955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8EA6AE-B348-4765-A358-D8FF9D9A16F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8FC57F0-0C50-400C-865C-77A5DB099951}"/>
+    <workbookView xWindow="14303" yWindow="-52" windowWidth="21795" windowHeight="13694" xr2:uid="{E8FC57F0-0C50-400C-865C-77A5DB099951}"/>
   </bookViews>
   <sheets>
     <sheet name="냉동검토용 프로토콜" sheetId="1" r:id="rId1"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>외기온도값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테이블 데이터 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,6 +403,10 @@
   </si>
   <si>
     <t>제빙테이블 적용 (PC ↔ 메인)</t>
+  </si>
+  <si>
+    <t>테이블 데이터 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -549,71 +549,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EE35C0-487B-4D06-A0DE-831179CCD425}">
   <dimension ref="B2:BM33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -972,8 +972,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>77</v>
+      <c r="B2" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:65" x14ac:dyDescent="0.3">
@@ -993,10 +993,10 @@
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>5</v>
@@ -1007,7 +1007,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3"/>
@@ -1019,74 +1019,74 @@
       </c>
     </row>
     <row r="5" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+        <v>82</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="B7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -1094,650 +1094,706 @@
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="B12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="15"/>
+      <c r="BM13" s="15"/>
+    </row>
+    <row r="14" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="27"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="27"/>
-      <c r="AY13" s="27"/>
-      <c r="AZ13" s="27"/>
-      <c r="BA13" s="27"/>
-      <c r="BB13" s="27"/>
-      <c r="BC13" s="27"/>
-      <c r="BD13" s="27"/>
-      <c r="BE13" s="27"/>
-      <c r="BF13" s="27"/>
-      <c r="BG13" s="27"/>
-      <c r="BH13" s="27"/>
-      <c r="BI13" s="27"/>
-      <c r="BJ13" s="27"/>
-      <c r="BK13" s="27"/>
-      <c r="BL13" s="27"/>
-      <c r="BM13" s="27"/>
-    </row>
-    <row r="14" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="B15" s="19"/>
+      <c r="C15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="25">
-        <v>0</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="F16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="19"/>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="25">
+        <v>20</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="7">
-        <v>20</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="F18" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="K18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="L18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="M18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="7">
+        <v>87</v>
+      </c>
+      <c r="D20" s="25">
         <v>1</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>64</v>
+      <c r="E20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="25">
+        <v>5</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="28"/>
+      <c r="C23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="28"/>
+      <c r="C24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="27">
+        <v>4</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="7">
-        <v>5</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="11">
-        <v>4</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>64</v>
+      <c r="K24" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="11">
+        <v>90</v>
+      </c>
+      <c r="D26" s="27">
         <v>7</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="20" t="s">
+      <c r="M26" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="20" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="27">
+        <v>4</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="28"/>
+      <c r="C29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="28"/>
+      <c r="C30" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D30" s="25">
+        <v>93</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="7">
-        <v>48</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="20" t="s">
+      <c r="M30" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="28"/>
+      <c r="C31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="23"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="25">
+        <v>7</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="20"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="7">
-        <v>7</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="I32" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="J32" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>64</v>
+      <c r="K32" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="9"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="M13:BM13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
@@ -1762,75 +1818,19 @@
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="M13:BM13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/1. 프로토콜/PC연동_프로토콜_V1_251107.xlsx
+++ b/Doc/1. 프로토콜/PC연동_프로토콜_V1_251107.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Water\2025\WORKS\2025_Tech_PC_Program\Doc\1. 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8EA6AE-B348-4765-A358-D8FF9D9A16F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B73397A-44F1-4B66-82AD-0CA0B7090005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-52" windowWidth="21795" windowHeight="13694" xr2:uid="{E8FC57F0-0C50-400C-865C-77A5DB099951}"/>
+    <workbookView xWindow="-16320" yWindow="-15" windowWidth="16440" windowHeight="29040" xr2:uid="{E8FC57F0-0C50-400C-865C-77A5DB099951}"/>
   </bookViews>
   <sheets>
     <sheet name="냉동검토용 프로토콜" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
   <si>
     <t>STX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,12 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탱크커버 탈착상태
-0 : OPEN
-1 : CLOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상태조회 (PC → 메인)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,6 +400,18 @@
   </si>
   <si>
     <t>테이블 데이터 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제빙 STEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외기온도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입수온도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EE35C0-487B-4D06-A0DE-831179CCD425}">
-  <dimension ref="B2:BM33"/>
+  <dimension ref="B1:BM33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:E31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -971,9 +977,26 @@
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="2" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>76</v>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:65" x14ac:dyDescent="0.3">
@@ -1007,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3"/>
@@ -1021,7 +1044,7 @@
     <row r="5" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
       <c r="C5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="12"/>
@@ -1033,7 +1056,7 @@
     <row r="6" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="12"/>
@@ -1044,7 +1067,7 @@
     </row>
     <row r="7" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="8"/>
@@ -1056,7 +1079,7 @@
     </row>
     <row r="8" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="8"/>
@@ -1068,7 +1091,7 @@
     </row>
     <row r="9" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="8"/>
@@ -1080,7 +1103,7 @@
     </row>
     <row r="10" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="8"/>
@@ -1095,7 +1118,7 @@
     </row>
     <row r="12" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="7"/>
@@ -1198,7 +1221,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="20">
         <v>0</v>
@@ -1234,7 +1257,7 @@
     <row r="15" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B15" s="19"/>
       <c r="C15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="17"/>
@@ -1252,19 +1275,19 @@
         <v>69</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>63</v>
@@ -1306,37 +1329,37 @@
         <v>19</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="25">
         <v>20</v>
       </c>
       <c r="E18" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="K18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="L18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="M18" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -1358,7 +1381,7 @@
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="19"/>
       <c r="C20" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="25">
         <v>1</v>
@@ -1412,7 +1435,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="25">
         <v>5</v>
@@ -1464,7 +1487,7 @@
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="28"/>
       <c r="C24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="27">
         <v>4</v>
@@ -1516,7 +1539,7 @@
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="28"/>
       <c r="C26" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="27">
         <v>7</v>
@@ -1568,7 +1591,7 @@
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="28"/>
       <c r="C28" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="27">
         <v>4</v>
@@ -1620,7 +1643,7 @@
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="28"/>
       <c r="C30" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="25">
         <v>93</v>
@@ -1644,7 +1667,7 @@
         <v>64</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L30" s="24" t="s">
         <v>4</v>
@@ -1674,7 +1697,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="25">
         <v>7</v>
